--- a/Packages/cn.etetet.map/Luban/Config/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.map/Luban/Config/Datas/Unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.map/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A79317-26B2-CC4E-8B74-DDF1EB6BEBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C558144-4CF1-CC43-A46C-BC95E2566186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="440" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
   <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AM9" sqref="AM9"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1054,7 +1054,7 @@
         <v>1009</v>
       </c>
       <c r="S6" s="1">
-        <v>300003</v>
+        <v>300001</v>
       </c>
       <c r="T6" s="5">
         <v>10021</v>
@@ -1148,7 +1148,7 @@
         <v>1009</v>
       </c>
       <c r="S7" s="1">
-        <v>300003</v>
+        <v>300001</v>
       </c>
       <c r="T7" s="5">
         <v>10021</v>
@@ -1242,7 +1242,7 @@
         <v>1009</v>
       </c>
       <c r="S8" s="1">
-        <v>300000</v>
+        <v>300001</v>
       </c>
       <c r="T8" s="5">
         <v>10021</v>
@@ -1861,11 +1861,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="H1:AK1"/>
     <mergeCell ref="H2:AK2"/>
     <mergeCell ref="H3:AK3"/>
@@ -1879,6 +1874,11 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
